--- a/xlsx/哥伦比亚广播公司_intext.xlsx
+++ b/xlsx/哥伦比亚广播公司_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1101">
   <si>
     <t>哥伦比亚广播公司</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E5%85%AC%E5%8F%B8</t>
@@ -29,43 +29,43 @@
     <t>CBS公司</t>
   </si>
   <si>
-    <t>政策_政策_美國_哥伦比亚广播公司</t>
+    <t>政策_政策_美国_哥伦比亚广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A</t>
   </si>
   <si>
-    <t>無線</t>
+    <t>无线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>廣播網</t>
+    <t>广播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視網</t>
+    <t>电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>廣告標語</t>
+    <t>广告标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Building</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>CBS體育</t>
+    <t>CBS体育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jeff_Fager</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1080i</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%B8%85%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>標清電視</t>
+    <t>标清电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BA%BF%E7%94%B5%E5%8F%B0%E5%91%BC%E5%8F%B7</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>商業電視台</t>
+    <t>商业电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>廣播聯播網</t>
+    <t>广播联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國廣播公司</t>
+    <t>美国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E7%90%83%E7%94%B5%E8%A7%86%E7%BD%91</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%89%B2%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>彩色電視</t>
+    <t>彩色电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E8%8A%AC%E5%A6%AE</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%89%E5%A4%A7%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>美國三大電視網</t>
+    <t>美国三大电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%8B%E7%94%B5%E6%B0%94%E5%85%AC%E5%8F%B8</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A8%9B%E6%A8%82%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>全美娛樂公司</t>
+    <t>全美娱乐公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%B4%80%E4%BA%BA</t>
   </si>
   <si>
-    <t>經紀人</t>
+    <t>经纪人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arthur_Judson</t>
@@ -257,25 +257,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>聯播網</t>
+    <t>联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%94%B1%E7%89%87</t>
   </si>
   <si>
-    <t>哥倫比亞唱片</t>
+    <t>哥伦比亚唱片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
+    <t>新泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%93%A6%E5%85%8B_(%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐瓦克 (紐澤西州)</t>
+    <t>纽瓦克 (纽泽西州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WOR-AM</t>
@@ -287,31 +287,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E5%A0%B1%E9%9B%BB%E8%A9%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國電報電話公司</t>
+    <t>美国电报电话公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%A0%BC%E9%9B%B7%E8%B2%9D</t>
   </si>
   <si>
-    <t>en-阿爾弗雷德·格雷貝</t>
+    <t>en-阿尔弗雷德·格雷贝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>布魯克林</t>
+    <t>布鲁克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Steinway_Hall</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5</t>
   </si>
   <si>
-    <t>黃金時段</t>
+    <t>黄金时段</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Price_Is_Right</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E7%9A%82%E5%8A%87</t>
   </si>
   <si>
-    <t>肥皂劇</t>
+    <t>肥皂剧</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Young_and_the_Restless</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%87%E6%95%A2%E8%80%8C%E7%BE%8E%E9%BA%97</t>
   </si>
   <si>
-    <t>勇敢而美麗</t>
+    <t>勇敢而美丽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E5%8F%A3%E7%A7%80</t>
   </si>
   <si>
-    <t>脫口秀</t>
+    <t>脱口秀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Talk_(TV_series)</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>CBS新聞台</t>
+    <t>CBS新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E4%BB%8A%E6%99%A8</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%99%9A%E9%96%93%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS晚間新聞</t>
+    <t>CBS晚间新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sunday_morning_talk_shows</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E9%9D%A2%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>直面國家</t>
+    <t>直面国家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Up_to_the_Minute</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/60%E5%88%86%E9%90%98</t>
   </si>
   <si>
-    <t>60分鐘</t>
+    <t>60分钟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_News_Sunday_Morning</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E8%90%8A%E6%9B%BC%E6%B7%B1%E5%A4%9C%E7%A7%80</t>
   </si>
   <si>
-    <t>大衛萊曼深夜秀</t>
+    <t>大卫莱曼深夜秀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Late_Late_Show_with_Craig_Ferguson</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%9D%B1%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>美東時間</t>
+    <t>美东时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%B6%E5%8C%BA</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%AD%AF%C2%B7%E5%87%B1%E9%87%8C</t>
   </si>
   <si>
-    <t>德魯·凱里</t>
+    <t>德鲁·凯里</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wayne_Brady</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E6%A3%92%E5%87%BA%E6%93%8A</t>
   </si>
   <si>
-    <t>強棒出擊</t>
+    <t>强棒出击</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Card_Sharks</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E5%95%8F%E7%AD%94</t>
   </si>
   <si>
-    <t>家庭問答</t>
+    <t>家庭问答</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wheel_of_Fortune</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E6%8B%89%C2%B7%E5%90%89%E7%88%BE%E4%BC%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>莎拉·吉爾伯特</t>
+    <t>莎拉·吉尔伯特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sharon_Osbourne</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>衛星電視</t>
+    <t>卫星电视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orbit_News</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>中東地區</t>
+    <t>中东地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E9%9B%86%E5%9B%A2</t>
@@ -677,25 +677,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
+    <t>有线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%97%A5%E6%9C%9F%E5%8F%98%E6%9B%B4%E7%BA%BF</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8D%81%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>第十電視網</t>
+    <t>第十电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E7%88%86%E5%8D%B1%E6%9C%BA</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E8%BF%94%E7%8A%AF%E7%BD%AA%E7%8F%BE%E5%A0%B4</t>
   </si>
   <si>
-    <t>重返犯罪現場</t>
+    <t>重返犯罪现场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%97%E8%BF%BD%E5%87%B6</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B9%9D%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>第九電視網</t>
+    <t>第九电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E4%BA%92%E5%8B%95</t>
   </si>
   <si>
-    <t>CBS互動</t>
+    <t>CBS互动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Kidshow</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E9%AB%94%E8%82%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>CBS體育台</t>
+    <t>CBS体育台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Studio_Center</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E9%9B%BB%E8%A6%96%E5%9F%8E</t>
   </si>
   <si>
-    <t>CBS電視城</t>
+    <t>CBS电视城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Television_Distribution</t>
@@ -941,13 +941,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E8%8F%AF%E7%B4%8D%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>哥倫比亞華納廣播公司</t>
+    <t>哥伦比亚华纳广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E7%99%BC%E5%B1%95%E5%8F%B2</t>
   </si>
   <si>
-    <t>CBS發展史</t>
+    <t>CBS发展史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_assets_owned_by_CBS</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E5%91%A8%E5%88%8A</t>
   </si>
   <si>
-    <t>商業周刊</t>
+    <t>商业周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1007,37 +1007,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E5%80%AB</t>
   </si>
   <si>
-    <t>阿克倫</t>
+    <t>阿克伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B4%9B%E5%A8%81%E9%A0%93%E6%96%AF</t>
   </si>
   <si>
-    <t>普洛威頓斯</t>
+    <t>普洛威顿斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%8B%89%E4%B8%98%E5%85%B9_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1061,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E5%85%B9%E5%A0%A1</t>
@@ -1091,25 +1091,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬薩諸塞州</t>
+    <t>马萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>印第安納州</t>
+    <t>印第安纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9%E5%A0%A1</t>
   </si>
   <si>
-    <t>韋恩堡</t>
+    <t>韦恩堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1121,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E5%B8%82</t>
   </si>
   <si>
-    <t>聖路易市</t>
+    <t>圣路易市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B8%82</t>
@@ -1163,31 +1163,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CBS電視網</t>
+    <t>CBS电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>國家廣播公司</t>
+    <t>国家广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福斯廣播公司</t>
+    <t>福斯广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CW電視網</t>
+    <t>CW电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/America_One</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/AMG%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>AMG電視網</t>
+    <t>AMG电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Channel_America</t>
@@ -1217,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%AD%90%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>離子電視網</t>
+    <t>离子电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/My_Family_TV</t>
@@ -1307,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B3%B6%E9%9B%BB%E8%A6%96%E5%8F%B0%E8%8B%B1%E8%AA%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>半島電視台英語頻道</t>
+    <t>半岛电视台英语频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Local_AccuWeather_Channel</t>
@@ -1409,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%A3%A1%E9%83%8E%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>阿裡郎電視網</t>
+    <t>阿里郎电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Asia_Vision_(TV_network)</t>
@@ -1433,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>德國之聲</t>
+    <t>德国之声</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ImaginAsian</t>
@@ -1577,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>聯合派拉蒙電視網</t>
+    <t>联合派拉蒙电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WB%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>WB電視網</t>
+    <t>WB电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_Independent_Network</t>
@@ -1607,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>第一電視網</t>
+    <t>第一电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NTA_Film_Network</t>
@@ -1751,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E8%B3%BC%E7%89%A9%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>居家購物電視網</t>
+    <t>居家购物电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/David_R._Andelman</t>
@@ -1769,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A7%91%E6%BC%A2</t>
   </si>
   <si>
-    <t>威廉·科漢</t>
+    <t>威廉·科汉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Charles_K._Gifford</t>
@@ -2789,13 +2789,13 @@
     <t>https://zh.wikipedia.org/wiki/Showtime%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>Showtime電視網</t>
+    <t>Showtime电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E9%AB%94%E8%82%B2%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CBS體育電視網</t>
+    <t>CBS体育电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pop_(U.S._TV_network)</t>
@@ -3185,7 +3185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%E8%88%87%E8%88%92%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>西蒙與舒斯特</t>
+    <t>西蒙与舒斯特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Howard_Books</t>
@@ -3297,9 +3297,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%B4%BE%E6%8B%89%E8%92%99%E7%94%B5%E8%A7%86%E7%BD%91</t>
-  </si>
-  <si>
-    <t>联合派拉蒙电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Worldvision_Enterprises</t>
@@ -3781,7 +3778,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -19844,7 +19841,7 @@
         <v>1093</v>
       </c>
       <c r="F558" t="s">
-        <v>1094</v>
+        <v>520</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19870,10 +19867,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F559" t="s">
         <v>1095</v>
-      </c>
-      <c r="F559" t="s">
-        <v>1096</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19957,10 +19954,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F562" t="s">
         <v>1097</v>
-      </c>
-      <c r="F562" t="s">
-        <v>1098</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19986,10 +19983,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F563" t="s">
         <v>1099</v>
-      </c>
-      <c r="F563" t="s">
-        <v>1100</v>
       </c>
       <c r="G563" t="n">
         <v>4</v>
@@ -20015,10 +20012,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F564" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
